--- a/RETO PRUEBAS MANUALES/Matriz de Riesgos - RETO.xlsx
+++ b/RETO PRUEBAS MANUALES/Matriz de Riesgos - RETO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\io\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\io\Desktop\RETO PRUEBAS MANUALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC8970-6522-48D4-BEEB-530B1B113E10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFB6AEC-A2CF-4AF1-80FF-6558FC8770E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="630" windowWidth="7050" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Riesgo" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Plan de Acción</t>
   </si>
   <si>
-    <t>Responsable de la Acción</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fecha Compromiso </t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>La retroalimentacion de la experiencia del usuario con la pagina web no es la adecuada con el equipo desarrollo y no se realizan las mejoras esperadas en el producto</t>
   </si>
   <si>
-    <t>Equipo de desarrollo</t>
-  </si>
-  <si>
     <t>3 de marzo de 2023</t>
   </si>
   <si>
@@ -307,21 +301,12 @@
     <t>Se debe enfatizar que la comunicación con el usuario es primordial el todo el proceso de desarrollo, la retroalimentacion permite generar las modificaciones necesarias para asientregar un producto optimo</t>
   </si>
   <si>
-    <t>Equipo QA</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
     <t>Retrasos en la entrega de actividades del proyecto</t>
   </si>
   <si>
     <t>Planificacion desfasada de cronogramas</t>
   </si>
   <si>
-    <t>Actividades que no se realicen de manera optima</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poca comunicación entre el equipo </t>
   </si>
   <si>
@@ -331,18 +316,6 @@
     <t xml:space="preserve">Cambios en los tiempos estipulados para las entregas </t>
   </si>
   <si>
-    <t>Reajustes de presupuesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reajuste de personal </t>
-  </si>
-  <si>
-    <t>Documentacion incompleta</t>
-  </si>
-  <si>
-    <t>Modificacion de los requerimientos planteados inicialmente</t>
-  </si>
-  <si>
     <t>Mala asignacion de recursos para el proyecto (Poco presupuesto)</t>
   </si>
   <si>
@@ -358,9 +331,6 @@
     <t>Hacer uso de software de baja confiabilidad que no asegure la seguridad de la informacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Manejo de inadecuado de informacion referente a intereses del proyecto por parte del equipo a terceros </t>
-  </si>
-  <si>
     <t xml:space="preserve">Implementar clausulas de confidencialidad para manejo de la informacion sobre el proyecto y sus actividades con el fin de evitar que terceros obtengan informacion que pueda poner en riesgo el proyecto </t>
   </si>
   <si>
@@ -394,19 +364,25 @@
     <t>Implementar estrategias que permitan mejorar el ambiente laboral, la comunicación entre cada uno de los integrantes del equipo y la resolucion de posibles conflictos y diferencias</t>
   </si>
   <si>
-    <t>PO - Equipo de QA</t>
-  </si>
-  <si>
-    <t>Equipo de QA</t>
-  </si>
-  <si>
     <t>Generar estrategias que permitan reducir el impacto el en desarrollo del proyecto en dado caso que sea necesario realizar algun ajuste</t>
   </si>
   <si>
-    <t>Equpo de QA</t>
-  </si>
-  <si>
-    <t>Equipo de QA -  PO</t>
+    <t xml:space="preserve">Manejo de inadecuado de informacion sensible referente a intereses del proyecto por parte del equipo a terceros </t>
+  </si>
+  <si>
+    <t>Modificacion de los requerimientos planteados inicialmente en etapas avanzadas del proyecto</t>
+  </si>
+  <si>
+    <t>Documentacion incompleta donde no se evidencia informacion referente a la evolucion y cambios durante el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reajuste de personalen etapas avanzadas del proyecto </t>
+  </si>
+  <si>
+    <t>Reajustes de presupuesto en etapas finales del proyecto</t>
+  </si>
+  <si>
+    <t>Actividades que no se realicen de manera optima y que no cumplan con parametros y lineamientos establecidos</t>
   </si>
 </sst>
 </file>
@@ -573,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -619,9 +595,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,19 +610,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="53">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color rgb="FF92D050"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -951,52 +944,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDEEAF6"/>
@@ -1215,49 +1162,49 @@
   </dxfs>
   <tableStyles count="9">
     <tableStyle name="Matriz de Riesgo-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="firstRowStripe" dxfId="53"/>
-      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
     <tableStyle name="Tabla-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="secondRowStripe" dxfId="47"/>
     </tableStyle>
     <tableStyle name="Tabla-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="48"/>
-      <tableStyleElement type="firstRowStripe" dxfId="47"/>
-      <tableStyleElement type="secondRowStripe" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
     <tableStyle name="Tabla-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
     </tableStyle>
     <tableStyle name="Tabla-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="42"/>
-      <tableStyleElement type="firstRowStripe" dxfId="41"/>
-      <tableStyleElement type="secondRowStripe" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
     <tableStyle name="Tabla-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
-      <tableStyleElement type="secondRowStripe" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
     </tableStyle>
     <tableStyle name="Tabla-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="36"/>
-      <tableStyleElement type="firstRowStripe" dxfId="35"/>
-      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
     <tableStyle name="Tabla-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="firstRowStripe" dxfId="32"/>
-      <tableStyleElement type="secondRowStripe" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
     <tableStyle name="Tabla-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="30"/>
-      <tableStyleElement type="firstRowStripe" dxfId="29"/>
-      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1276,11 +1223,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="18278475" cy="971550"/>
+    <xdr:ext cx="16040100" cy="971550"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -1294,8 +1241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="18278475" cy="971550"/>
+          <a:off x="1" y="190500"/>
+          <a:ext cx="16040100" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1349,20 +1296,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A7:L41">
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Consecutivo" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción Riesgo" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tipo de Riesgo" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Probabilidad de ocurrencia" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Impacto" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Riesgo" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Riesgo " dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Acción" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Plan de Acción" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Responsable de la Acción" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Fecha Compromiso " dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Estado" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A7:J41">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Consecutivo" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción Riesgo" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tipo de Riesgo" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Probabilidad de ocurrencia" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Impacto" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Riesgo" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Riesgo " dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Acción" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Plan de Acción" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Fecha Compromiso " dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Matriz de Riesgo-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1371,8 +1316,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:B5">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Plan de Acción" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Descripción" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Plan de Acción" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Descripción" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Tabla-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1381,7 +1326,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="D1:D3">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Tipo de Riesg" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Tipo de Riesg" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="Tabla-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1390,9 +1335,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="F1:H6">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Probabilidad" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Evaluación" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Definición" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Probabilidad" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Evaluación" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Definición" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="Tabla-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1401,9 +1346,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="J1:L6">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Impacto" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Evaluación" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Definición" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Impacto" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Evaluación" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Definición" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Tabla-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1412,7 +1357,7 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A8:A10">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Responsable Calidad" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Responsable Calidad" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Tabla-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1421,7 +1366,7 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_7" displayName="Table_7" ref="D8:D10">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Plan de Calidad" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Plan de Calidad" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Tabla-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1430,7 +1375,7 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_8" displayName="Table_8" ref="F8:F10">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Historia de Usuario" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Historia de Usuario" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Tabla-style 7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1439,7 +1384,7 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_9" displayName="Table_9" ref="A12:A14">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Estado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Estado" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Tabla-style 8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1646,114 +1591,100 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:L1003"/>
+  <dimension ref="A1:J1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="83.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="25" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" ht="27" customHeight="1">
+    <row r="1" spans="1:10">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="27" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -1784,22 +1715,16 @@
       <c r="J7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="28.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:10" ht="28.5" customHeight="1">
       <c r="A8" s="12">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -1816,30 +1741,24 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1">
+      <c r="J8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1">
       <c r="A9" s="12">
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
@@ -1856,30 +1775,24 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30.75" customHeight="1">
+      <c r="J9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="12">
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
@@ -1896,30 +1809,24 @@
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" customHeight="1">
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" customHeight="1">
       <c r="A11" s="12">
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
@@ -1936,30 +1843,24 @@
         <v>8</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="21.75" customHeight="1">
+        <v>79</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1">
       <c r="A12" s="12">
         <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -1976,30 +1877,24 @@
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="36.75" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36.75" customHeight="1">
       <c r="A13" s="12">
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -2016,30 +1911,24 @@
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="29.25" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" customHeight="1">
       <c r="A14" s="12">
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -2056,30 +1945,24 @@
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="27" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1">
       <c r="A15" s="12">
         <v>8</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
@@ -2096,30 +1979,24 @@
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="12">
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -2136,30 +2013,24 @@
         <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="64.5" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="12">
         <v>10</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
@@ -2176,30 +2047,24 @@
         <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="45">
+        <v>84</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
       <c r="A18" s="12">
         <v>11</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -2216,30 +2081,24 @@
         <v>8</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45">
+        <v>85</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45">
       <c r="A19" s="12">
         <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="12">
         <v>2</v>
@@ -2256,30 +2115,24 @@
         <v>6</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1">
       <c r="A20" s="12">
         <v>13</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -2296,30 +2149,24 @@
         <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
       <c r="A21" s="12">
         <v>14</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -2336,30 +2183,24 @@
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="48.75" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="48.75" customHeight="1">
       <c r="A22" s="8">
         <v>15</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -2376,30 +2217,24 @@
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="8">
         <v>16</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="8">
         <v>2</v>
@@ -2416,30 +2251,24 @@
         <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="42" customHeight="1">
+        <v>107</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="42" customHeight="1">
       <c r="A24" s="8">
         <v>17</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="12">
         <v>2</v>
@@ -2456,30 +2285,24 @@
         <v>8</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="39.75" customHeight="1">
+        <v>108</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="39.75" customHeight="1">
       <c r="A25" s="12">
         <v>18</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
@@ -2496,30 +2319,24 @@
         <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="51" customHeight="1">
+        <v>109</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="51" customHeight="1">
       <c r="A26" s="8">
         <v>19</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="12">
         <v>2</v>
@@ -2536,30 +2353,24 @@
         <v>8</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="38.25" customHeight="1">
+        <v>110</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="38.25" customHeight="1">
       <c r="A27" s="8">
         <v>20</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
@@ -2576,30 +2387,24 @@
         <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="44.25" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="44.25" customHeight="1">
       <c r="A28" s="17">
         <v>21</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
@@ -2616,30 +2421,24 @@
         <v>4</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="33" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33" customHeight="1">
       <c r="A29">
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2656,30 +2455,24 @@
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="36" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="36" customHeight="1">
       <c r="A30">
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2696,30 +2489,24 @@
         <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="33" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="33" customHeight="1">
       <c r="A31">
         <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2736,30 +2523,24 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="45.75" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45.75" customHeight="1">
       <c r="A32">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>102</v>
+      <c r="B32" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2776,30 +2557,24 @@
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="J32" t="s">
-        <v>122</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="33" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="33" customHeight="1">
       <c r="A33">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
-        <v>103</v>
+      <c r="B33" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2816,30 +2591,24 @@
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" t="s">
-        <v>93</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="33.75" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="33.75" customHeight="1">
       <c r="A34">
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2856,30 +2625,24 @@
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J34" t="s">
-        <v>93</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="27" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="27" customHeight="1">
       <c r="A35">
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2896,30 +2659,24 @@
         <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J35" t="s">
-        <v>124</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="33" customHeight="1">
+        <v>102</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="33" customHeight="1">
       <c r="A36">
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2936,30 +2693,24 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J36" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30.75" customHeight="1">
+        <v>101</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30.75" customHeight="1">
       <c r="A37">
         <v>30</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2976,30 +2727,24 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" t="s">
-        <v>125</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="45.75" customHeight="1">
+        <v>101</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45.75" customHeight="1">
       <c r="A38">
         <v>31</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3016,68 +2761,62 @@
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" t="s">
-        <v>93</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="B39" s="18"/>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>5</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="21">
         <v>5</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <f>'Matriz de Riesgo'!$D39*'Matriz de Riesgo'!$E39</f>
         <v>25</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <f>'Matriz de Riesgo'!$F39</f>
         <v>25</v>
       </c>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="B40" s="18"/>
       <c r="G40" s="1"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="B41" s="18"/>
       <c r="G41" s="1"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="I48" s="16"/>
     </row>
     <row r="49" spans="9:9" ht="15.75" customHeight="1">
@@ -5947,18 +5686,18 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L6"/>
+    <mergeCell ref="A1:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G1003">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="between">
       <formula>20</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="between">
       <formula>11</formula>
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
@@ -6025,222 +5764,222 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="28"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K3" s="1">
         <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="K4" s="1">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
